--- a/Results_Exported Data/Regression Data.xlsx
+++ b/Results_Exported Data/Regression Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhn_hac/Hanyang University/01-2. Study_Alone/R Data Analysis/LDA/Results_Exported Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611AA3F0-91EA-B64E-96ED-2FE39C1A783A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8A2831-D460-8040-B916-29E25B34A5C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="28340" activeTab="2" xr2:uid="{508ED33F-AE8E-2F4D-85CE-1F49D94BBA55}"/>
+    <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="28340" activeTab="1" xr2:uid="{508ED33F-AE8E-2F4D-85CE-1F49D94BBA55}"/>
   </bookViews>
   <sheets>
     <sheet name="2000-2020" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet4!$A$1:$G$69</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -444,14 +444,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -948,24 +948,24 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
@@ -1032,11 +1032,11 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="2" t="s">
         <v>33</v>
       </c>
@@ -1086,11 +1086,11 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="2" t="s">
         <v>33</v>
       </c>
@@ -1140,11 +1140,11 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="2" t="s">
         <v>33</v>
       </c>
@@ -1194,11 +1194,11 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="2" t="s">
         <v>33</v>
       </c>
@@ -1248,11 +1248,11 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="2" t="s">
         <v>33</v>
       </c>
@@ -1302,11 +1302,11 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
       <c r="F33" s="2" t="s">
         <v>33</v>
       </c>
@@ -1356,11 +1356,11 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="2" t="s">
         <v>33</v>
       </c>
@@ -1410,11 +1410,11 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="2" t="s">
         <v>33</v>
       </c>
@@ -1464,11 +1464,11 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
       <c r="F39" s="2" t="s">
         <v>33</v>
       </c>
@@ -1518,11 +1518,11 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
       <c r="F41" s="2" t="s">
         <v>33</v>
       </c>
@@ -1572,11 +1572,11 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
       <c r="F43" s="2" t="s">
         <v>33</v>
       </c>
@@ -1626,11 +1626,11 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
       <c r="F45" s="2" t="s">
         <v>33</v>
       </c>
@@ -1680,11 +1680,11 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
       <c r="F47" s="2" t="s">
         <v>33</v>
       </c>
@@ -1734,11 +1734,11 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
       <c r="F49" s="2" t="s">
         <v>33</v>
       </c>
@@ -1788,11 +1788,11 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
       <c r="F51" s="2" t="s">
         <v>33</v>
       </c>
@@ -1842,11 +1842,11 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
       <c r="F53" s="2" t="s">
         <v>33</v>
       </c>
@@ -1896,11 +1896,11 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
       <c r="F55" s="2" t="s">
         <v>33</v>
       </c>
@@ -1950,11 +1950,11 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
       <c r="F57" s="2" t="s">
         <v>33</v>
       </c>
@@ -2004,11 +2004,11 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
       <c r="F59" s="2" t="s">
         <v>33</v>
       </c>
@@ -2058,11 +2058,11 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
       <c r="F61" s="2" t="s">
         <v>33</v>
       </c>
@@ -2112,11 +2112,11 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
       <c r="F63" s="2" t="s">
         <v>33</v>
       </c>
@@ -2166,11 +2166,11 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
       <c r="F65" s="2" t="s">
         <v>33</v>
       </c>
@@ -2220,11 +2220,11 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
       <c r="F67" s="2" t="s">
         <v>33</v>
       </c>
@@ -2274,11 +2274,11 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
       <c r="F69" s="2" t="s">
         <v>33</v>
       </c>
@@ -2328,11 +2328,11 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
       <c r="F71" s="2" t="s">
         <v>33</v>
       </c>
@@ -2382,11 +2382,11 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
       <c r="F73" s="2" t="s">
         <v>33</v>
       </c>
@@ -2436,11 +2436,11 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
       <c r="F75" s="2" t="s">
         <v>33</v>
       </c>
@@ -2490,11 +2490,11 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
       <c r="F77" s="2" t="s">
         <v>33</v>
       </c>
@@ -2544,11 +2544,11 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
       <c r="F79" s="2" t="s">
         <v>33</v>
       </c>
@@ -2598,11 +2598,11 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
       <c r="F81" s="2" t="s">
         <v>33</v>
       </c>
@@ -2652,11 +2652,11 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
       <c r="F83" s="2" t="s">
         <v>33</v>
       </c>
@@ -2706,11 +2706,11 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
       <c r="F85" s="2" t="s">
         <v>33</v>
       </c>
@@ -2760,11 +2760,11 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
       <c r="F87" s="2" t="s">
         <v>33</v>
       </c>
@@ -2814,11 +2814,11 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
       <c r="F89" s="2" t="s">
         <v>33</v>
       </c>
@@ -2844,11 +2844,6 @@
     <mergeCell ref="A83:E83"/>
     <mergeCell ref="A85:E85"/>
     <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A73:E73"/>
     <mergeCell ref="A75:E75"/>
     <mergeCell ref="A53:E53"/>
     <mergeCell ref="A55:E55"/>
@@ -2856,11 +2851,11 @@
     <mergeCell ref="A59:E59"/>
     <mergeCell ref="A61:E61"/>
     <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A73:E73"/>
     <mergeCell ref="A51:E51"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="A31:E31"/>
@@ -2868,12 +2863,17 @@
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A27:E27"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:J20"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2883,8 +2883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BD8140-AEE4-9940-AC90-F7F8C0B0B742}">
   <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3513,7 +3513,7 @@
       <c r="C17" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <v>1E-3</v>
       </c>
       <c r="E17">
@@ -3534,7 +3534,7 @@
       <c r="M17" t="s">
         <v>82</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="8">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="O17">
@@ -3598,7 +3598,7 @@
       <c r="C19" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="9">
         <v>-1E-3</v>
       </c>
       <c r="E19">
@@ -3619,7 +3619,7 @@
       <c r="M19" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="9">
         <v>-0.10199999999999999</v>
       </c>
       <c r="O19">
@@ -4278,7 +4278,7 @@
       <c r="C35" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="8">
         <v>1E-3</v>
       </c>
       <c r="E35">
@@ -4299,7 +4299,7 @@
       <c r="M35" t="s">
         <v>82</v>
       </c>
-      <c r="N35" s="10">
+      <c r="N35" s="8">
         <v>0.05</v>
       </c>
       <c r="O35">
@@ -4363,7 +4363,7 @@
       <c r="C37" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="8">
         <v>1E-3</v>
       </c>
       <c r="E37">
@@ -4384,7 +4384,7 @@
       <c r="M37" t="s">
         <v>82</v>
       </c>
-      <c r="N37" s="10">
+      <c r="N37" s="8">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="O37">
@@ -4533,7 +4533,7 @@
       <c r="C41" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="8">
         <v>1E-3</v>
       </c>
       <c r="E41">
@@ -4554,7 +4554,7 @@
       <c r="M41" t="s">
         <v>82</v>
       </c>
-      <c r="N41" s="10">
+      <c r="N41" s="8">
         <v>0.06</v>
       </c>
       <c r="O41">
@@ -4788,7 +4788,7 @@
       <c r="C47" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="8">
         <v>1E-3</v>
       </c>
       <c r="E47">
@@ -4809,7 +4809,7 @@
       <c r="M47" t="s">
         <v>82</v>
       </c>
-      <c r="N47" s="10">
+      <c r="N47" s="8">
         <v>7.8E-2</v>
       </c>
       <c r="O47">
@@ -4873,7 +4873,7 @@
       <c r="C49" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="8">
         <v>1E-3</v>
       </c>
       <c r="E49">
@@ -4894,7 +4894,7 @@
       <c r="M49" t="s">
         <v>82</v>
       </c>
-      <c r="N49" s="10">
+      <c r="N49" s="8">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="O49">
@@ -4958,7 +4958,7 @@
       <c r="C51" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="9">
         <v>-1E-3</v>
       </c>
       <c r="E51">
@@ -4979,7 +4979,7 @@
       <c r="M51" t="s">
         <v>82</v>
       </c>
-      <c r="N51" s="11">
+      <c r="N51" s="9">
         <v>-0.105</v>
       </c>
       <c r="O51">
@@ -5064,7 +5064,7 @@
       <c r="M53" t="s">
         <v>82</v>
       </c>
-      <c r="N53" s="10">
+      <c r="N53" s="8">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="O53">
@@ -5149,7 +5149,7 @@
       <c r="M55" t="s">
         <v>82</v>
       </c>
-      <c r="N55" s="10">
+      <c r="N55" s="8">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="O55">
@@ -5319,7 +5319,7 @@
       <c r="M59" t="s">
         <v>82</v>
       </c>
-      <c r="N59" s="10">
+      <c r="N59" s="8">
         <v>0.112</v>
       </c>
       <c r="O59">
@@ -5829,7 +5829,7 @@
       <c r="M71" t="s">
         <v>82</v>
       </c>
-      <c r="N71" s="11">
+      <c r="N71" s="9">
         <v>-0.109</v>
       </c>
       <c r="O71">
@@ -5881,7 +5881,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
@@ -6040,7 +6040,7 @@
       <c r="B7" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="D7">
@@ -6340,7 +6340,7 @@
       <c r="B19" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="9">
         <v>-0.109</v>
       </c>
       <c r="D19">
@@ -6640,7 +6640,7 @@
       <c r="B31" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="8">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="D31">
@@ -6690,7 +6690,7 @@
       <c r="B33" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="9">
         <v>-0.10199999999999999</v>
       </c>
       <c r="D33">
@@ -7040,7 +7040,7 @@
       <c r="B47" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="8">
         <v>0.05</v>
       </c>
       <c r="D47">
@@ -7090,7 +7090,7 @@
       <c r="B49" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="8">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="D49">
@@ -7190,7 +7190,7 @@
       <c r="B53" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="8">
         <v>0.06</v>
       </c>
       <c r="D53">
@@ -7340,7 +7340,7 @@
       <c r="B59" t="s">
         <v>82</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="8">
         <v>7.8E-2</v>
       </c>
       <c r="D59">
@@ -7390,7 +7390,7 @@
       <c r="B61" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="9">
         <v>-0.105</v>
       </c>
       <c r="D61">
@@ -7440,7 +7440,7 @@
       <c r="B63" t="s">
         <v>82</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="8">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="D63">
@@ -7490,7 +7490,7 @@
       <c r="B65" t="s">
         <v>82</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="8">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="D65">
@@ -7590,7 +7590,7 @@
       <c r="B69" t="s">
         <v>82</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="8">
         <v>0.112</v>
       </c>
       <c r="D69">
